--- a/2. 연구사업(2023년)/6. 분석결과/data_analysis/PCA/Modified_PCA_B.xlsx
+++ b/2. 연구사업(2023년)/6. 분석결과/data_analysis/PCA/Modified_PCA_B.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26924"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Git\Study\2. 연구사업(2023년)\6. 분석결과\data_analysis\PCA\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ED3AFAD4-C023-42CB-9F15-65488C3F010A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -78,9 +79,6 @@
     <t>pH</t>
   </si>
   <si>
-    <t>name_new_formatted</t>
-  </si>
-  <si>
     <t>B</t>
   </si>
   <si>
@@ -673,12 +671,16 @@
   </si>
   <si>
     <t>B-FJ(6)</t>
+  </si>
+  <si>
+    <t>test</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -761,9 +763,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 테마">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -801,9 +803,9 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -838,7 +840,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -873,7 +875,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -1046,14 +1048,18 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:S83"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="S1" sqref="S1"/>
+      <selection activeCell="S2" sqref="S2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="5" max="5" width="15.125" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="25.875" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
@@ -1111,24 +1117,24 @@
         <v>17</v>
       </c>
       <c r="S1" s="1" t="s">
-        <v>18</v>
+        <v>216</v>
       </c>
     </row>
     <row r="2" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B2">
         <v>1</v>
       </c>
       <c r="C2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D2" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="E2" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="F2">
         <v>18.456229850364629</v>
@@ -1170,24 +1176,24 @@
         <v>8.18</v>
       </c>
       <c r="S2" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="3" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B3">
         <v>2</v>
       </c>
       <c r="C3" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D3" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="E3" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="F3">
         <v>16.833208611942261</v>
@@ -1229,24 +1235,24 @@
         <v>7.98</v>
       </c>
       <c r="S3" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
     </row>
     <row r="4" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B4">
         <v>5</v>
       </c>
       <c r="C4" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D4" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="E4" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="F4">
         <v>16.732733200819901</v>
@@ -1288,24 +1294,24 @@
         <v>7.94</v>
       </c>
       <c r="S4" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
     </row>
     <row r="5" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B5">
         <v>8</v>
       </c>
       <c r="C5" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D5" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="E5" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="F5">
         <v>23.305659832916099</v>
@@ -1347,24 +1353,24 @@
         <v>6.87</v>
       </c>
       <c r="S5" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="6" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B6">
         <v>3</v>
       </c>
       <c r="C6" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D6" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="E6" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="F6">
         <v>21.8813916722759</v>
@@ -1406,24 +1412,24 @@
         <v>6.79</v>
       </c>
       <c r="S6" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
     </row>
     <row r="7" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B7">
         <v>4</v>
       </c>
       <c r="C7" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D7" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="E7" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="F7">
         <v>22.210583513678611</v>
@@ -1465,24 +1471,24 @@
         <v>6.6</v>
       </c>
       <c r="S7" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
     </row>
     <row r="8" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B8">
         <v>7</v>
       </c>
       <c r="C8" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D8" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="E8" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="F8">
         <v>20.49084078677922</v>
@@ -1524,24 +1530,24 @@
         <v>6.74</v>
       </c>
       <c r="S8" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
     <row r="9" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B9">
         <v>6</v>
       </c>
       <c r="C9" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D9" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="E9" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="F9">
         <v>28.246586717975021</v>
@@ -1583,24 +1589,24 @@
         <v>6.92</v>
       </c>
       <c r="S9" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="10" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B10">
         <v>9</v>
       </c>
       <c r="C10" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D10" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="E10" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="F10">
         <v>26.79773351152954</v>
@@ -1642,24 +1648,24 @@
         <v>6.98</v>
       </c>
       <c r="S10" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="11" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B11">
         <v>10</v>
       </c>
       <c r="C11" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D11" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="E11" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="F11">
         <v>26.905332500817369</v>
@@ -1701,24 +1707,24 @@
         <v>7.04</v>
       </c>
       <c r="S11" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
     <row r="12" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B12">
         <v>14</v>
       </c>
       <c r="C12" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D12" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="E12" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="F12">
         <v>5.0683637838044104</v>
@@ -1760,24 +1766,24 @@
         <v>7.11</v>
       </c>
       <c r="S12" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="13" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B13">
         <v>11</v>
       </c>
       <c r="C13" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D13" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="E13" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="F13">
         <v>5.0243794580498307</v>
@@ -1819,24 +1825,24 @@
         <v>7.03</v>
       </c>
       <c r="S13" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
     </row>
     <row r="14" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B14">
         <v>13</v>
       </c>
       <c r="C14" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D14" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="E14" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="F14">
         <v>5.0959031342300776</v>
@@ -1878,24 +1884,24 @@
         <v>7.03</v>
       </c>
       <c r="S14" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
     </row>
     <row r="15" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B15">
         <v>12</v>
       </c>
       <c r="C15" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D15" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="E15" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="F15">
         <v>5.0417510979649096</v>
@@ -1937,24 +1943,24 @@
         <v>7.02</v>
       </c>
       <c r="S15" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
     </row>
     <row r="16" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B16">
         <v>16</v>
       </c>
       <c r="C16" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D16" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="E16" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="F16">
         <v>23.467614250241819</v>
@@ -1996,24 +2002,24 @@
         <v>7.41</v>
       </c>
       <c r="S16" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="17" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B17">
         <v>15</v>
       </c>
       <c r="C17" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D17" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="E17" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="F17">
         <v>24.443521037428351</v>
@@ -2055,24 +2061,24 @@
         <v>7.4</v>
       </c>
       <c r="S17" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
     </row>
     <row r="18" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
+        <v>18</v>
+      </c>
+      <c r="B18">
+        <v>18</v>
+      </c>
+      <c r="C18" t="s">
         <v>19</v>
       </c>
-      <c r="B18">
-        <v>18</v>
-      </c>
-      <c r="C18" t="s">
-        <v>20</v>
-      </c>
       <c r="D18" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="E18" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="F18">
         <v>33.471898631638688</v>
@@ -2114,24 +2120,24 @@
         <v>7.3</v>
       </c>
       <c r="S18" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="19" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B19">
         <v>17</v>
       </c>
       <c r="C19" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D19" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="E19" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="F19">
         <v>33.768753028881662</v>
@@ -2173,24 +2179,24 @@
         <v>7</v>
       </c>
       <c r="S19" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
     </row>
     <row r="20" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B20">
         <v>72</v>
       </c>
       <c r="C20" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D20" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="E20" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="F20">
         <v>19.766280723953969</v>
@@ -2232,24 +2238,24 @@
         <v>7.56</v>
       </c>
       <c r="S20" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="21" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B21">
         <v>74</v>
       </c>
       <c r="C21" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D21" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="E21" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="F21">
         <v>18.883694583211721</v>
@@ -2291,24 +2297,24 @@
         <v>7.77</v>
       </c>
       <c r="S21" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
     </row>
     <row r="22" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B22">
         <v>19</v>
       </c>
       <c r="C22" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D22" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="E22" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="F22">
         <v>15.722793965022429</v>
@@ -2350,24 +2356,24 @@
         <v>7.13</v>
       </c>
       <c r="S22" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
     </row>
     <row r="23" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B23">
         <v>21</v>
       </c>
       <c r="C23" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D23" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="E23" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="F23">
         <v>23.301398208537751</v>
@@ -2409,24 +2415,24 @@
         <v>7.88</v>
       </c>
       <c r="S23" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="24" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B24">
         <v>22</v>
       </c>
       <c r="C24" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D24" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="E24" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="F24">
         <v>11.68829595520141</v>
@@ -2468,24 +2474,24 @@
         <v>8.2899999999999991</v>
       </c>
       <c r="S24" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="25" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B25">
         <v>23</v>
       </c>
       <c r="C25" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D25" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="E25" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="F25">
         <v>12.57581881423893</v>
@@ -2527,24 +2533,24 @@
         <v>7.2</v>
       </c>
       <c r="S25" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="26" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B26">
         <v>24</v>
       </c>
       <c r="C26" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D26" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="E26" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="F26">
         <v>23.18038959383038</v>
@@ -2586,24 +2592,24 @@
         <v>8.1</v>
       </c>
       <c r="S26" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="27" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B27">
         <v>25</v>
       </c>
       <c r="C27" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D27" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="E27" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="F27">
         <v>15.61653736565582</v>
@@ -2645,24 +2651,24 @@
         <v>7.08</v>
       </c>
       <c r="S27" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="28" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B28">
         <v>26</v>
       </c>
       <c r="C28" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D28" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="E28" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="F28">
         <v>13.429465099180399</v>
@@ -2704,24 +2710,24 @@
         <v>7.63</v>
       </c>
       <c r="S28" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="29" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B29">
         <v>73</v>
       </c>
       <c r="C29" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D29" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="E29" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="F29">
         <v>13.172326853661099</v>
@@ -2763,24 +2769,24 @@
         <v>6.7</v>
       </c>
       <c r="S29" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="30" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B30">
         <v>28</v>
       </c>
       <c r="C30" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D30" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="E30" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="F30">
         <v>23.0886279510494</v>
@@ -2822,24 +2828,24 @@
         <v>7.6</v>
       </c>
       <c r="S30" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="31" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B31">
         <v>29</v>
       </c>
       <c r="C31" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D31" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="E31" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="F31">
         <v>22.448230981573989</v>
@@ -2881,24 +2887,24 @@
         <v>7.9</v>
       </c>
       <c r="S31" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="32" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B32">
         <v>30</v>
       </c>
       <c r="C32" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D32" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="E32" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="F32">
         <v>22.004890850017961</v>
@@ -2940,24 +2946,24 @@
         <v>7.3</v>
       </c>
       <c r="S32" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
     </row>
     <row r="33" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B33">
         <v>31</v>
       </c>
       <c r="C33" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D33" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="E33" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="F33">
         <v>22.26730195889127</v>
@@ -2999,24 +3005,24 @@
         <v>7.86</v>
       </c>
       <c r="S33" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
     </row>
     <row r="34" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B34">
         <v>32</v>
       </c>
       <c r="C34" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D34" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="E34" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="F34">
         <v>14.347146557169189</v>
@@ -3058,24 +3064,24 @@
         <v>6.8</v>
       </c>
       <c r="S34" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="35" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B35">
         <v>33</v>
       </c>
       <c r="C35" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D35" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="E35" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="F35">
         <v>13.572939879059071</v>
@@ -3117,24 +3123,24 @@
         <v>6.67</v>
       </c>
       <c r="S35" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
     </row>
     <row r="36" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B36">
         <v>34</v>
       </c>
       <c r="C36" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D36" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="E36" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="F36">
         <v>14.28207809770943</v>
@@ -3176,24 +3182,24 @@
         <v>7.05</v>
       </c>
       <c r="S36" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
     </row>
     <row r="37" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B37">
         <v>35</v>
       </c>
       <c r="C37" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D37" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="E37" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="F37">
         <v>13.98344367953413</v>
@@ -3235,24 +3241,24 @@
         <v>6.91</v>
       </c>
       <c r="S37" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="38" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B38">
         <v>70</v>
       </c>
       <c r="C38" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D38" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="E38" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="F38">
         <v>17.695677917456258</v>
@@ -3294,24 +3300,24 @@
         <v>7.51</v>
       </c>
       <c r="S38" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="39" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B39">
         <v>36</v>
       </c>
       <c r="C39" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D39" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="E39" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="F39">
         <v>18.87989365602817</v>
@@ -3353,24 +3359,24 @@
         <v>7.09</v>
       </c>
       <c r="S39" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="40" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B40">
         <v>38</v>
       </c>
       <c r="C40" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D40" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="E40" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="F40">
         <v>77.874434616533421</v>
@@ -3412,24 +3418,24 @@
         <v>7.19</v>
       </c>
       <c r="S40" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="41" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B41">
         <v>39</v>
       </c>
       <c r="C41" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D41" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="E41" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="F41">
         <v>84.024635034898097</v>
@@ -3471,24 +3477,24 @@
         <v>7.02</v>
       </c>
       <c r="S41" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
     </row>
     <row r="42" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B42">
         <v>40</v>
       </c>
       <c r="C42" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D42" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="E42" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="F42">
         <v>79.526454297533505</v>
@@ -3530,24 +3536,24 @@
         <v>7.11</v>
       </c>
       <c r="S42" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
     </row>
     <row r="43" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B43">
         <v>41</v>
       </c>
       <c r="C43" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D43" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="E43" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="F43">
         <v>80.096818927021388</v>
@@ -3589,24 +3595,24 @@
         <v>7.24</v>
       </c>
       <c r="S43" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
     </row>
     <row r="44" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B44">
         <v>42</v>
       </c>
       <c r="C44" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D44" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="E44" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="F44">
         <v>83.203441781640379</v>
@@ -3648,24 +3654,24 @@
         <v>7.31</v>
       </c>
       <c r="S44" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
     </row>
     <row r="45" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B45">
         <v>37</v>
       </c>
       <c r="C45" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D45" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="E45" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="F45">
         <v>75.011978295763413</v>
@@ -3707,24 +3713,24 @@
         <v>6.6</v>
       </c>
       <c r="S45" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
     </row>
     <row r="46" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B46">
         <v>89</v>
       </c>
       <c r="C46" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D46" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="E46" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="F46">
         <v>11.16898982797894</v>
@@ -3766,24 +3772,24 @@
         <v>7.07</v>
       </c>
       <c r="S46" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
     <row r="47" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B47">
         <v>90</v>
       </c>
       <c r="C47" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D47" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="E47" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="F47">
         <v>10.572253505463699</v>
@@ -3825,24 +3831,24 @@
         <v>7.06</v>
       </c>
       <c r="S47" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
     </row>
     <row r="48" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B48">
         <v>57</v>
       </c>
       <c r="C48" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D48" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="E48" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="F48">
         <v>22.616564460505099</v>
@@ -3884,24 +3890,24 @@
         <v>6.9</v>
       </c>
       <c r="S48" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="49" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B49">
         <v>58</v>
       </c>
       <c r="C49" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D49" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="E49" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="F49">
         <v>22.506582124794861</v>
@@ -3943,24 +3949,24 @@
         <v>6.99</v>
       </c>
       <c r="S49" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
     </row>
     <row r="50" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B50">
         <v>59</v>
       </c>
       <c r="C50" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D50" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="E50" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="F50">
         <v>24.28946416273461</v>
@@ -4002,24 +4008,24 @@
         <v>6.9</v>
       </c>
       <c r="S50" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
     </row>
     <row r="51" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B51">
         <v>61</v>
       </c>
       <c r="C51" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D51" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="E51" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="F51">
         <v>22.368517034686739</v>
@@ -4061,24 +4067,24 @@
         <v>6.99</v>
       </c>
       <c r="S51" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
     </row>
     <row r="52" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B52">
         <v>92</v>
       </c>
       <c r="C52" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D52" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="E52" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="F52">
         <v>32.313573289274927</v>
@@ -4120,24 +4126,24 @@
         <v>7.41</v>
       </c>
       <c r="S52" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="53" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B53">
         <v>62</v>
       </c>
       <c r="C53" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D53" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="E53" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="F53">
         <v>33.343575812000751</v>
@@ -4179,24 +4185,24 @@
         <v>7.23</v>
       </c>
       <c r="S53" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
     </row>
     <row r="54" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B54">
         <v>63</v>
       </c>
       <c r="C54" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D54" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="E54" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="F54">
         <v>30.600585073357269</v>
@@ -4238,24 +4244,24 @@
         <v>7.2</v>
       </c>
       <c r="S54" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
     </row>
     <row r="55" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B55">
         <v>64</v>
       </c>
       <c r="C55" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D55" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="E55" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="F55">
         <v>29.999457202715099</v>
@@ -4297,24 +4303,24 @@
         <v>7.21</v>
       </c>
       <c r="S55" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
     </row>
     <row r="56" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B56">
         <v>54</v>
       </c>
       <c r="C56" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D56" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="E56" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="F56">
         <v>3.4324777670053099</v>
@@ -4356,24 +4362,24 @@
         <v>7.6</v>
       </c>
       <c r="S56" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="57" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B57">
         <v>52</v>
       </c>
       <c r="C57" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D57" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="E57" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="F57">
         <v>3.4749620553085618</v>
@@ -4415,24 +4421,24 @@
         <v>7.5</v>
       </c>
       <c r="S57" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
     </row>
     <row r="58" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B58">
         <v>55</v>
       </c>
       <c r="C58" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D58" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="E58" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="F58">
         <v>3.4286876887862818</v>
@@ -4474,24 +4480,24 @@
         <v>7.8</v>
       </c>
       <c r="S58" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
     </row>
     <row r="59" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B59">
         <v>56</v>
       </c>
       <c r="C59" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D59" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="E59" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="F59">
         <v>3.4108055153000638</v>
@@ -4533,24 +4539,24 @@
         <v>7.97</v>
       </c>
       <c r="S59" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
     </row>
     <row r="60" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B60">
         <v>51</v>
       </c>
       <c r="C60" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="D60" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="E60" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="F60">
         <v>3.7601008332122698</v>
@@ -4592,24 +4598,24 @@
         <v>7.68</v>
       </c>
       <c r="S60" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
     </row>
     <row r="61" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B61">
         <v>53</v>
       </c>
       <c r="C61" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="D61" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="E61" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="F61">
         <v>3.428730020165573</v>
@@ -4651,24 +4657,24 @@
         <v>7.77</v>
       </c>
       <c r="S61" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
     </row>
     <row r="62" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B62">
         <v>67</v>
       </c>
       <c r="C62" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D62" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="E62" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="F62">
         <v>28.4860378542283</v>
@@ -4710,24 +4716,24 @@
         <v>6.9</v>
       </c>
       <c r="S62" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="63" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B63">
         <v>66</v>
       </c>
       <c r="C63" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D63" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="E63" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="F63">
         <v>25.389757622973729</v>
@@ -4769,24 +4775,24 @@
         <v>6.3</v>
       </c>
       <c r="S63" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
     </row>
     <row r="64" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B64">
         <v>68</v>
       </c>
       <c r="C64" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D64" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="E64" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="F64">
         <v>22.95789486331017</v>
@@ -4828,24 +4834,24 @@
         <v>7.65</v>
       </c>
       <c r="S64" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="65" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B65">
         <v>69</v>
       </c>
       <c r="C65" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D65" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="E65" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="F65">
         <v>12.6731585092871</v>
@@ -4887,24 +4893,24 @@
         <v>7.65</v>
       </c>
       <c r="S65" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="66" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B66">
         <v>71</v>
       </c>
       <c r="C66" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D66" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="E66" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="F66">
         <v>14.682472176249229</v>
@@ -4946,24 +4952,24 @@
         <v>7.33</v>
       </c>
       <c r="S66" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="67" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B67">
         <v>76</v>
       </c>
       <c r="C67" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D67" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="E67" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="F67">
         <v>74.483632571498148</v>
@@ -5005,24 +5011,24 @@
         <v>6.9</v>
       </c>
       <c r="S67" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="68" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B68">
         <v>77</v>
       </c>
       <c r="C68" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D68" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="E68" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="F68">
         <v>73.426960457748123</v>
@@ -5064,24 +5070,24 @@
         <v>6.9</v>
       </c>
       <c r="S68" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
     <row r="69" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B69">
         <v>78</v>
       </c>
       <c r="C69" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D69" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="E69" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="F69">
         <v>44.728312532605187</v>
@@ -5123,24 +5129,24 @@
         <v>7.1</v>
       </c>
       <c r="S69" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="70" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B70">
         <v>81</v>
       </c>
       <c r="C70" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D70" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="E70" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="F70">
         <v>5.9796482974172678</v>
@@ -5182,24 +5188,24 @@
         <v>8.18</v>
       </c>
       <c r="S70" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="71" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B71">
         <v>82</v>
       </c>
       <c r="C71" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D71" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="E71" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="F71">
         <v>5.9244635060084629</v>
@@ -5241,24 +5247,24 @@
         <v>8.2100000000000009</v>
       </c>
       <c r="S71" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="72" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B72">
         <v>83</v>
       </c>
       <c r="C72" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D72" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="E72" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="F72">
         <v>5.7596811984278924</v>
@@ -5300,24 +5306,24 @@
         <v>8.1999999999999993</v>
       </c>
       <c r="S72" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
     </row>
     <row r="73" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B73">
         <v>88</v>
       </c>
       <c r="C73" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D73" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="E73" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="F73">
         <v>8.1762441124706609</v>
@@ -5359,24 +5365,24 @@
         <v>6.7</v>
       </c>
       <c r="S73" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="74" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B74">
         <v>87</v>
       </c>
       <c r="C74" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D74" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="E74" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="F74">
         <v>3.7424485955157509</v>
@@ -5418,24 +5424,24 @@
         <v>6.5</v>
       </c>
       <c r="S74" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="75" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B75">
         <v>91</v>
       </c>
       <c r="C75" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D75" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="E75" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="F75">
         <v>7.8532647185529711</v>
@@ -5477,24 +5483,24 @@
         <v>7.09</v>
       </c>
       <c r="S75" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="76" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B76">
         <v>93</v>
       </c>
       <c r="C76" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D76" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="E76" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="F76">
         <v>16.600520422989089</v>
@@ -5536,24 +5542,24 @@
         <v>7.11</v>
       </c>
       <c r="S76" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="77" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A77" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B77">
         <v>96</v>
       </c>
       <c r="C77" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D77" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="E77" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="F77">
         <v>16.512620742017528</v>
@@ -5595,24 +5601,24 @@
         <v>6.3</v>
       </c>
       <c r="S77" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
     </row>
     <row r="78" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A78" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B78">
         <v>97</v>
       </c>
       <c r="C78" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D78" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="E78" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="F78">
         <v>16.24023640637208</v>
@@ -5654,24 +5660,24 @@
         <v>7.37</v>
       </c>
       <c r="S78" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
     </row>
     <row r="79" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A79" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B79">
         <v>99</v>
       </c>
       <c r="C79" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D79" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="E79" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="F79">
         <v>16.82353021310082</v>
@@ -5713,24 +5719,24 @@
         <v>6.9</v>
       </c>
       <c r="S79" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
     </row>
     <row r="80" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A80" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B80">
         <v>100</v>
       </c>
       <c r="C80" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D80" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="E80" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="F80">
         <v>16.715501473161471</v>
@@ -5772,24 +5778,24 @@
         <v>7.13</v>
       </c>
       <c r="S80" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
     </row>
     <row r="81" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A81" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B81">
         <v>94</v>
       </c>
       <c r="C81" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D81" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="E81" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="F81">
         <v>15.272031664038799</v>
@@ -5831,24 +5837,24 @@
         <v>6.8</v>
       </c>
       <c r="S81" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
     </row>
     <row r="82" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A82" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B82">
         <v>95</v>
       </c>
       <c r="C82" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D82" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="E82" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="F82">
         <v>17.569921912711081</v>
@@ -5890,24 +5896,24 @@
         <v>7.08</v>
       </c>
       <c r="S82" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
     </row>
     <row r="83" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A83" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B83">
         <v>98</v>
       </c>
       <c r="C83" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D83" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="E83" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="F83">
         <v>16.4772822597462</v>
@@ -5949,12 +5955,12 @@
         <v>7.2</v>
       </c>
       <c r="S83" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:S83">
-    <sortState ref="A2:S83">
+  <autoFilter ref="A1:S83" xr:uid="{00000000-0009-0000-0000-000000000000}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:S83">
       <sortCondition ref="S1:S83"/>
     </sortState>
   </autoFilter>
